--- a/Cleaned Data XLS format/National_Gender_Pay_Gap.xlsx
+++ b/Cleaned Data XLS format/National_Gender_Pay_Gap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boston\class\Homework\OnTheUpAndUp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quentinsloboda/OnTheUpAndUp/Cleaned Data XLS format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A18FAFD-CA87-4927-99C8-0093E2C33910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568C2E07-6004-F94A-B685-D16AAE3CF59F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="795" windowWidth="27870" windowHeight="14715" xr2:uid="{4473C353-91E3-4E2D-A276-0ED7EA3B9E3E}"/>
+    <workbookView xWindow="-31860" yWindow="2660" windowWidth="27880" windowHeight="14720" xr2:uid="{4473C353-91E3-4E2D-A276-0ED7EA3B9E3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Quarter</t>
   </si>
@@ -295,9 +295,6 @@
   </si>
   <si>
     <t>Q3 2020</t>
-  </si>
-  <si>
-    <t>https://www.bls.gov/charts/usual-weekly-earnings/usual-weekly-earnings-over-time-total-men-women.htm#</t>
   </si>
 </sst>
 </file>
@@ -679,13 +676,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D21520-85D9-4E6F-86E5-B2751C90DB2D}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,7 +705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -731,7 +728,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -754,7 +751,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -777,7 +774,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -800,7 +797,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -823,7 +820,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -846,7 +843,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -869,7 +866,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -892,7 +889,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -915,7 +912,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -938,7 +935,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -961,7 +958,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -984,7 +981,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1007,7 +1004,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1030,7 +1027,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1053,7 +1050,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1076,7 +1073,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1099,7 +1096,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1122,7 +1119,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -1145,7 +1142,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -1168,7 +1165,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -1191,7 +1188,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -1214,7 +1211,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -1237,7 +1234,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -1260,7 +1257,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -1283,7 +1280,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -1306,7 +1303,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -1329,7 +1326,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -1352,7 +1349,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -1375,7 +1372,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -1398,7 +1395,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -1421,7 +1418,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
@@ -1444,7 +1441,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -1467,7 +1464,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
@@ -1490,7 +1487,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -1513,7 +1510,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
@@ -1536,7 +1533,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -1559,7 +1556,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -1582,7 +1579,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
@@ -1605,7 +1602,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -1628,7 +1625,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
@@ -1651,7 +1648,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -1674,7 +1671,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
@@ -1697,7 +1694,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -1720,7 +1717,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
@@ -1743,7 +1740,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -1766,7 +1763,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
@@ -1789,7 +1786,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -1812,7 +1809,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
@@ -1835,7 +1832,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -1858,7 +1855,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
@@ -1881,7 +1878,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -1904,7 +1901,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
@@ -1927,7 +1924,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>60</v>
       </c>
@@ -1950,7 +1947,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
@@ -1973,7 +1970,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
@@ -1996,7 +1993,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
@@ -2019,7 +2016,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>64</v>
       </c>
@@ -2042,7 +2039,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>65</v>
       </c>
@@ -2065,7 +2062,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
@@ -2088,7 +2085,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>67</v>
       </c>
@@ -2111,7 +2108,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>68</v>
       </c>
@@ -2134,7 +2131,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
@@ -2157,7 +2154,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>70</v>
       </c>
@@ -2180,7 +2177,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>71</v>
       </c>
@@ -2203,7 +2200,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>72</v>
       </c>
@@ -2226,7 +2223,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
@@ -2249,7 +2246,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
@@ -2272,7 +2269,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
@@ -2295,7 +2292,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>76</v>
       </c>
@@ -2318,7 +2315,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>77</v>
       </c>
@@ -2341,7 +2338,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>78</v>
       </c>
@@ -2364,7 +2361,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>79</v>
       </c>
@@ -2387,7 +2384,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>80</v>
       </c>
@@ -2410,7 +2407,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>81</v>
       </c>
@@ -2433,7 +2430,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>82</v>
       </c>
@@ -2456,7 +2453,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>83</v>
       </c>
@@ -2479,7 +2476,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>84</v>
       </c>
@@ -2502,7 +2499,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>85</v>
       </c>
@@ -2525,7 +2522,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>86</v>
       </c>
@@ -2548,7 +2545,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>87</v>
       </c>
@@ -2571,7 +2568,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>88</v>
       </c>
@@ -2594,7 +2591,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>89</v>
       </c>
@@ -2617,15 +2614,10 @@
         <v>349</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>90</v>
-      </c>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A86" r:id="rId1" xr:uid="{4E5E94A1-3C5F-469F-A7F4-5F0F83D79BA8}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>